--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.49987701694737</v>
+        <v>70.76661260791411</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.20089198255792</v>
+        <v>96.82600137271911</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.21470158985616</v>
+        <v>87.58506369787716</v>
       </c>
       <c r="AD2" t="n">
-        <v>53499.87701694736</v>
+        <v>70766.61260791411</v>
       </c>
       <c r="AE2" t="n">
-        <v>73200.89198255792</v>
+        <v>96826.00137271911</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.165326468789894e-06</v>
+        <v>1.177166060053252e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.720703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>66214.70158985617</v>
+        <v>87585.06369787717</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.52515514463609</v>
+        <v>68.79189073560285</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.4989903982825</v>
+        <v>94.1240997884437</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.77066570064044</v>
+        <v>85.14102780866146</v>
       </c>
       <c r="AD3" t="n">
-        <v>51525.15514463609</v>
+        <v>68791.89073560285</v>
       </c>
       <c r="AE3" t="n">
-        <v>70498.99039828251</v>
+        <v>94124.09978844369</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.609095226507103e-06</v>
+        <v>1.241142622667546e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.528645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>63770.66570064044</v>
+        <v>85141.02780866146</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.27714824459971</v>
+        <v>67.11199535460555</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.79141229947498</v>
+        <v>91.82559281641068</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.22605645898165</v>
+        <v>83.06188711606373</v>
       </c>
       <c r="AD2" t="n">
-        <v>50277.14824459971</v>
+        <v>67111.99535460555</v>
       </c>
       <c r="AE2" t="n">
-        <v>68791.41229947498</v>
+        <v>91825.59281641067</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.682295722147883e-06</v>
+        <v>1.271055431835098e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62226.05645898165</v>
+        <v>83061.88711606374</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.84594417186025</v>
+        <v>74.46586249491136</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.51561691574337</v>
+        <v>101.8874782674932</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.83131944170164</v>
+        <v>92.16348034164305</v>
       </c>
       <c r="AD2" t="n">
-        <v>58845.94417186025</v>
+        <v>74465.86249491136</v>
       </c>
       <c r="AE2" t="n">
-        <v>80515.61691574336</v>
+        <v>101887.4782674932</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.738945097465042e-06</v>
+        <v>1.197310330633141e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.534505208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72831.31944170163</v>
+        <v>92163.48034164305</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.810971268347</v>
+        <v>73.76865094581538</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.09952132937525</v>
+        <v>100.9335226672178</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.5503740305934</v>
+        <v>91.30056892497259</v>
       </c>
       <c r="AD2" t="n">
-        <v>57810.971268347</v>
+        <v>73768.65094581537</v>
       </c>
       <c r="AE2" t="n">
-        <v>79099.52132937525</v>
+        <v>100933.5226672178</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.368362622746199e-06</v>
+        <v>1.264705595747029e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71550.3740305934</v>
+        <v>91300.5689249726</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.77660202588862</v>
+        <v>83.89431480872177</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.10318110132245</v>
+        <v>114.7879026772017</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.1221055716795</v>
+        <v>103.8327063515524</v>
       </c>
       <c r="AD2" t="n">
-        <v>68776.60202588863</v>
+        <v>83894.31480872177</v>
       </c>
       <c r="AE2" t="n">
-        <v>94103.18110132245</v>
+        <v>114787.9026772017</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.980103468649596e-06</v>
+        <v>1.103196970354893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85122.10557167949</v>
+        <v>103832.7063515524</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.58870230608624</v>
+        <v>67.53706761096669</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.21769431119579</v>
+        <v>92.4071954304281</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.6116547137945</v>
+        <v>83.58798239288394</v>
       </c>
       <c r="AD2" t="n">
-        <v>50588.70230608624</v>
+        <v>67537.06761096668</v>
       </c>
       <c r="AE2" t="n">
-        <v>69217.69431119578</v>
+        <v>92407.19543042811</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.662499967491372e-06</v>
+        <v>1.262893993027584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.597005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62611.6547137945</v>
+        <v>83587.98239288395</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.44653393236733</v>
+        <v>93.75261987549841</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.75629972484734</v>
+        <v>128.2764705872833</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.42657568096053</v>
+        <v>116.0339442716241</v>
       </c>
       <c r="AD2" t="n">
-        <v>71446.53393236733</v>
+        <v>93752.61987549841</v>
       </c>
       <c r="AE2" t="n">
-        <v>97756.29972484734</v>
+        <v>128276.4705872833</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.368027011762036e-06</v>
+        <v>1.020307510760111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.856119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88426.57568096052</v>
+        <v>116033.9442716241</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.64620656462058</v>
+        <v>66.11263220856617</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.92813005774552</v>
+        <v>90.45822007120991</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.44516466277836</v>
+        <v>81.8250145065448</v>
       </c>
       <c r="AD2" t="n">
-        <v>49646.20656462057</v>
+        <v>66112.63220856617</v>
       </c>
       <c r="AE2" t="n">
-        <v>67928.13005774553</v>
+        <v>90458.22007120991</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.640844600085088e-06</v>
+        <v>1.283029932188928e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>61445.16466277836</v>
+        <v>81825.0145065448</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.15512038074515</v>
+        <v>66.87213262403833</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.62444839265984</v>
+        <v>91.49740204645194</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.0750273530976</v>
+        <v>82.76501841257112</v>
       </c>
       <c r="AD2" t="n">
-        <v>50155.12038074515</v>
+        <v>66872.13262403834</v>
       </c>
       <c r="AE2" t="n">
-        <v>68624.44839265985</v>
+        <v>91497.40204645194</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.653317465454204e-06</v>
+        <v>1.272420558670571e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.668619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62075.0273530976</v>
+        <v>82765.01841257112</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.02399050584044</v>
+        <v>69.18798092249857</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.18151894654493</v>
+        <v>94.66604785641992</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.38805468219174</v>
+        <v>85.6312531136591</v>
       </c>
       <c r="AD2" t="n">
-        <v>52023.99050584044</v>
+        <v>69187.98092249857</v>
       </c>
       <c r="AE2" t="n">
-        <v>71181.51894654492</v>
+        <v>94666.04785641993</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.430495129751718e-06</v>
+        <v>1.21970085713017e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64388.05468219174</v>
+        <v>85631.2531136591</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.05423821427574</v>
+        <v>68.21822863093387</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.8546610787751</v>
+        <v>93.33918998865011</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.18783026706473</v>
+        <v>84.43102869853209</v>
       </c>
       <c r="AD3" t="n">
-        <v>51054.23821427574</v>
+        <v>68218.22863093387</v>
       </c>
       <c r="AE3" t="n">
-        <v>69854.6610787751</v>
+        <v>93339.18998865011</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.672834572691589e-06</v>
+        <v>1.254761861462773e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.531901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>63187.83026706472</v>
+        <v>84431.02869853209</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.708364216991</v>
+        <v>65.89998268338866</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.01317689992081</v>
+        <v>90.16726360942725</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.52209475370044</v>
+        <v>81.56182652111463</v>
       </c>
       <c r="AD2" t="n">
-        <v>49708.364216991</v>
+        <v>65899.98268338866</v>
       </c>
       <c r="AE2" t="n">
-        <v>68013.17689992081</v>
+        <v>90167.26360942725</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.46053984622784e-06</v>
+        <v>1.27050625135088e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.916015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>61522.09475370044</v>
+        <v>81561.82652111462</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.0615239918909</v>
+        <v>73.69265663003098</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.44233861933387</v>
+        <v>100.8295438917291</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.86047331954556</v>
+        <v>91.20651373788132</v>
       </c>
       <c r="AD2" t="n">
-        <v>58061.5239918909</v>
+        <v>73692.65663003098</v>
       </c>
       <c r="AE2" t="n">
-        <v>79442.33861933387</v>
+        <v>100829.5438917291</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.046917023778924e-06</v>
+        <v>1.234193282374195e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71860.47331954556</v>
+        <v>91206.51373788132</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.55239411370653</v>
+        <v>82.47183352940883</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.48221289254876</v>
+        <v>112.8416010354017</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.70566485510703</v>
+        <v>102.0721570067937</v>
       </c>
       <c r="AD2" t="n">
-        <v>59552.39411370653</v>
+        <v>82471.83352940883</v>
       </c>
       <c r="AE2" t="n">
-        <v>81482.21289254876</v>
+        <v>112841.6010354017</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.438132488095587e-06</v>
+        <v>1.162193529276701e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.801432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73705.66485510702</v>
+        <v>102072.1570067937</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.98647234468646</v>
+        <v>113.0681561267732</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.913996683612</v>
+        <v>154.7048394275825</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.9467661229651</v>
+        <v>139.9400266822622</v>
       </c>
       <c r="AD2" t="n">
-        <v>83986.47234468647</v>
+        <v>113068.1561267732</v>
       </c>
       <c r="AE2" t="n">
-        <v>114913.996683612</v>
+        <v>154704.8394275825</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.499947952785703e-06</v>
+        <v>8.963133911923004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.969401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103946.7661229651</v>
+        <v>139940.0266822622</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.89568186224557</v>
+        <v>66.49007314068774</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.26947316602926</v>
+        <v>90.97465140605712</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.75393046388565</v>
+        <v>82.29215835961028</v>
       </c>
       <c r="AD2" t="n">
-        <v>49895.68186224558</v>
+        <v>66490.07314068775</v>
       </c>
       <c r="AE2" t="n">
-        <v>68269.47316602926</v>
+        <v>90974.65140605712</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.650088730973781e-06</v>
+        <v>1.277947505068495e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.704427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61753.93046388566</v>
+        <v>82292.15835961029</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.03605053497834</v>
+        <v>68.09401621639138</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.82977589357662</v>
+        <v>93.16923708320819</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.165320089015</v>
+        <v>84.2772958598551</v>
       </c>
       <c r="AD2" t="n">
-        <v>51036.05053497833</v>
+        <v>68094.01621639138</v>
       </c>
       <c r="AE2" t="n">
-        <v>69829.77589357662</v>
+        <v>93169.23708320819</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.608988770210392e-06</v>
+        <v>1.250170674799594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63165.320089015</v>
+        <v>84277.2958598551</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.88516358332612</v>
+        <v>67.94312926473917</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.62332570966365</v>
+        <v>92.96278689929524</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.97857322089998</v>
+        <v>84.09054899174006</v>
       </c>
       <c r="AD3" t="n">
-        <v>50885.16358332612</v>
+        <v>67943.12926473917</v>
       </c>
       <c r="AE3" t="n">
-        <v>69623.32570966365</v>
+        <v>92962.78689929524</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.665546318154589e-06</v>
+        <v>1.258383786672045e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.564453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>62978.57322089998</v>
+        <v>84090.54899174007</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4297182972069</v>
+        <v>152.8374459479197</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.6725212077096</v>
+        <v>209.1189362580886</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3381612889898</v>
+        <v>189.1609184819467</v>
       </c>
       <c r="AD2" t="n">
-        <v>117429.7182972069</v>
+        <v>152837.4459479197</v>
       </c>
       <c r="AE2" t="n">
-        <v>160672.5212077096</v>
+        <v>209118.9362580886</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.225650207363051e-06</v>
+        <v>7.043907135483875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.39453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>145338.1612889898</v>
+        <v>189160.9184819467</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.84123960853072</v>
+        <v>73.64107021414165</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.14093580775949</v>
+        <v>100.7589610816773</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.58783596928626</v>
+        <v>91.14266725215727</v>
       </c>
       <c r="AD2" t="n">
-        <v>57841.23960853072</v>
+        <v>73641.07021414166</v>
       </c>
       <c r="AE2" t="n">
-        <v>79140.9358077595</v>
+        <v>100758.9610816773</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.235950770077453e-06</v>
+        <v>1.253434801315598e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.130859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>71587.83596928626</v>
+        <v>91142.66725215726</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.67810522066065</v>
+        <v>66.0105475267228</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.97177520620895</v>
+        <v>90.31854330585358</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.48464437952878</v>
+        <v>81.69866829563648</v>
       </c>
       <c r="AD2" t="n">
-        <v>49678.10522066065</v>
+        <v>66010.5475267228</v>
       </c>
       <c r="AE2" t="n">
-        <v>67971.77520620894</v>
+        <v>90318.54330585359</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.552912253940527e-06</v>
+        <v>1.276873416893408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>61484.64437952878</v>
+        <v>81698.66829563648</v>
       </c>
     </row>
   </sheetData>
